--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Chassaing/Jacques_Chassaing.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Chassaing/Jacques_Chassaing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Chassaing, né le 22 juin 1821 à Petit Barrot (Grandrif) et mort le 9 octobre 1871 à Philippeville sur le territoire de l'actuelle Algérie[1], est un chasseur de fauves français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Chassaing, né le 22 juin 1821 à Petit Barrot (Grandrif) et mort le 9 octobre 1871 à Philippeville sur le territoire de l'actuelle Algérie, est un chasseur de fauves français. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chassaing est célèbre pour ses importantes chasses aux lions et aux panthères en Afrique, qu'il a raconté dans son livre Mes Chasses au lion en 1865. 
-Jules Verne le mentionne au sujet de ses chasses dans son roman La Maison à vapeur (partie 1, chapitre II)[2] ainsi qu'Alphonse Daudet dans Tartarin de Tarascon[3]
+Jules Verne le mentionne au sujet de ses chasses dans son roman La Maison à vapeur (partie 1, chapitre II) ainsi qu'Alphonse Daudet dans Tartarin de Tarascon
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Chassaing, Mes chasses au Lion, Paris, Dentu, 1865, 1re éd., 313 p. (lire en ligne sur Gallica). </t>
         </is>
